--- a/nodes_source_analyses/energy/energy/energy_flexibility_wind_batteries_electricity.xlsx
+++ b/nodes_source_analyses/energy/energy/energy_flexibility_wind_batteries_electricity.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10719"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10402"/>
   <workbookPr showInkAnnotation="0" codeName="ThisWorkbook" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/roosdekok/code/etdataset/nodes_source_analyses/energy/energy/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/kyradehaan/github/etdataset/nodes_source_analyses/energy/energy/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D0E578C-83EB-3C45-900C-526169CCA4DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7033A969-E958-4E4E-A378-D55C95698950}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-11320" yWindow="-28300" windowWidth="30080" windowHeight="16100" tabRatio="762" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-5740" yWindow="-21600" windowWidth="38400" windowHeight="21600" tabRatio="762" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cover sheet" sheetId="14" r:id="rId1"/>
@@ -60,7 +60,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="125">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="201" uniqueCount="126">
   <si>
     <t>Source</t>
   </si>
@@ -432,9 +432,6 @@
     <t>EUR/MWh</t>
   </si>
   <si>
-    <t>Mathijs Bijkerk</t>
-  </si>
-  <si>
     <t>euro/MW</t>
   </si>
   <si>
@@ -448,6 +445,12 @@
   </si>
   <si>
     <t>energy_flexibility_wind_batteries_electricity.ad</t>
+  </si>
+  <si>
+    <t>Quintel assumption: output capacity is the same as input capacity</t>
+  </si>
+  <si>
+    <t>Kyra de Haan</t>
   </si>
 </sst>
 </file>
@@ -1249,7 +1252,7 @@
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="28" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="160">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="18" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="19" fillId="3" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -1557,6 +1560,9 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="3" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="276">
@@ -2382,7 +2388,7 @@
   <dimension ref="A1:D24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
@@ -2417,7 +2423,7 @@
         <v>12</v>
       </c>
       <c r="C4" s="147" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -2426,7 +2432,7 @@
         <v>37</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -2696,7 +2702,7 @@
       <c r="F10" s="95"/>
       <c r="G10" s="96"/>
       <c r="I10" s="149" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J10" s="83"/>
     </row>
@@ -2715,7 +2721,7 @@
       <c r="F11" s="95"/>
       <c r="G11" s="96"/>
       <c r="I11" s="149" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J11" s="83"/>
     </row>
@@ -2736,7 +2742,7 @@
         <v>93</v>
       </c>
       <c r="I12" s="149" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J12" s="83"/>
     </row>
@@ -2750,12 +2756,12 @@
       </c>
       <c r="E13" s="119">
         <f>'Research data'!E10</f>
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="F13" s="95"/>
       <c r="G13" s="96"/>
       <c r="I13" s="149" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J13" s="83"/>
     </row>
@@ -2774,7 +2780,7 @@
       <c r="F14" s="95"/>
       <c r="G14" s="96"/>
       <c r="I14" s="149" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J14" s="83"/>
     </row>
@@ -2793,7 +2799,7 @@
       <c r="F15" s="95"/>
       <c r="G15" s="95"/>
       <c r="I15" s="149" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J15" s="85"/>
     </row>
@@ -2811,7 +2817,7 @@
       <c r="F16" s="95"/>
       <c r="G16" s="95"/>
       <c r="I16" s="149" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J16" s="85"/>
     </row>
@@ -2846,7 +2852,7 @@
       <c r="F19" s="95"/>
       <c r="G19" s="95"/>
       <c r="I19" s="149" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J19" s="85"/>
     </row>
@@ -2856,7 +2862,7 @@
         <v>102</v>
       </c>
       <c r="D20" s="97" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="E20" s="98">
         <f>'Research data'!E15</f>
@@ -2865,7 +2871,7 @@
       <c r="F20" s="95"/>
       <c r="G20" s="95"/>
       <c r="I20" s="149" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J20" s="85"/>
     </row>
@@ -2884,7 +2890,7 @@
       <c r="F21" s="95"/>
       <c r="G21" s="95"/>
       <c r="I21" s="149" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J21" s="85"/>
     </row>
@@ -2902,7 +2908,7 @@
       <c r="F22" s="95"/>
       <c r="G22" s="95"/>
       <c r="I22" s="149" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J22" s="85"/>
     </row>
@@ -2920,7 +2926,7 @@
       <c r="F23" s="95"/>
       <c r="G23" s="95"/>
       <c r="I23" s="149" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J23" s="85"/>
     </row>
@@ -2938,7 +2944,7 @@
       <c r="F24" s="95"/>
       <c r="G24" s="95"/>
       <c r="I24" s="149" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J24" s="85"/>
     </row>
@@ -2957,7 +2963,7 @@
       <c r="F25" s="95"/>
       <c r="G25" s="95"/>
       <c r="I25" s="149" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J25" s="85"/>
     </row>
@@ -2975,7 +2981,7 @@
       <c r="F26" s="95"/>
       <c r="G26" s="95"/>
       <c r="I26" s="149" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J26" s="85"/>
     </row>
@@ -2993,7 +2999,7 @@
       <c r="F27" s="95"/>
       <c r="G27" s="95"/>
       <c r="I27" s="149" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J27" s="85"/>
     </row>
@@ -3011,7 +3017,7 @@
       <c r="F28" s="95"/>
       <c r="G28" s="95"/>
       <c r="I28" s="149" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J28" s="85"/>
     </row>
@@ -3029,7 +3035,7 @@
       <c r="F29" s="95"/>
       <c r="G29" s="95"/>
       <c r="I29" s="149" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J29" s="85"/>
     </row>
@@ -3063,7 +3069,7 @@
       <c r="F32" s="95"/>
       <c r="G32" s="95"/>
       <c r="I32" s="149" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J32" s="85"/>
     </row>
@@ -3082,7 +3088,7 @@
       <c r="F33" s="95"/>
       <c r="G33" s="95"/>
       <c r="I33" s="149" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J33" s="85"/>
     </row>
@@ -3100,7 +3106,7 @@
       <c r="F34" s="95"/>
       <c r="G34" s="95"/>
       <c r="I34" s="149" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J34" s="85"/>
     </row>
@@ -3132,7 +3138,7 @@
   <dimension ref="B1:J22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I14" sqref="I14:I15"/>
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.7109375" defaultRowHeight="16"/>
@@ -3288,13 +3294,14 @@
         <v>36</v>
       </c>
       <c r="E10" s="129">
-        <v>100</v>
+        <f>E9</f>
+        <v>80</v>
       </c>
       <c r="F10" s="41"/>
       <c r="G10" s="41"/>
       <c r="H10" s="40"/>
-      <c r="I10" s="127" t="s">
-        <v>78</v>
+      <c r="I10" s="160" t="s">
+        <v>124</v>
       </c>
       <c r="J10" s="68"/>
     </row>
@@ -3822,13 +3829,13 @@
       <c r="B9" s="14"/>
       <c r="C9" s="12"/>
       <c r="D9" s="139" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="E9" s="150">
         <v>0.01</v>
       </c>
       <c r="F9" s="139" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="G9" s="139" t="s">
         <v>106</v>
